--- a/outputs/SORs/SOR Testing_Integration.xlsx
+++ b/outputs/SORs/SOR Testing_Integration.xlsx
@@ -522,9 +522,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="1"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -567,9 +565,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="1"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
